--- a/DRM_Output/7_Vega_Analysis.xlsx
+++ b/DRM_Output/7_Vega_Analysis.xlsx
@@ -455,10 +455,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>461.819827520647</v>
+        <v>4.604959186270221</v>
       </c>
       <c r="C2" t="n">
-        <v>57.76256733424634</v>
+        <v>57.59697813245111</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>10.4040404040404</v>
       </c>
       <c r="B3" t="n">
-        <v>462.3437536733035</v>
+        <v>4.610183428292387</v>
       </c>
       <c r="C3" t="n">
-        <v>59.62958543883406</v>
+        <v>59.45864401583503</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>10.80808080808081</v>
       </c>
       <c r="B4" t="n">
-        <v>462.8099323934449</v>
+        <v>4.614831851447545</v>
       </c>
       <c r="C4" t="n">
-        <v>61.49860077675567</v>
+        <v>61.32230140704041</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>11.21212121212121</v>
       </c>
       <c r="B5" t="n">
-        <v>463.2264285624511</v>
+        <v>4.618984873351799</v>
       </c>
       <c r="C5" t="n">
-        <v>63.36939682857428</v>
+        <v>63.1877344073323</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>11.61616161616162</v>
       </c>
       <c r="B6" t="n">
-        <v>463.5999456947966</v>
+        <v>4.62270933697879</v>
       </c>
       <c r="C6" t="n">
-        <v>65.2417868085563</v>
+        <v>65.05475676643891</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>12.02020202020202</v>
       </c>
       <c r="B7" t="n">
-        <v>463.9360921955941</v>
+        <v>4.626061165602281</v>
       </c>
       <c r="C7" t="n">
-        <v>67.1156087248014</v>
+        <v>66.92320695684612</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>12.42424242424243</v>
       </c>
       <c r="B8" t="n">
-        <v>464.2395888871001</v>
+        <v>4.629087432112009</v>
       </c>
       <c r="C8" t="n">
-        <v>68.99072139088639</v>
+        <v>68.79294419687267</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>12.82828282828283</v>
       </c>
       <c r="B9" t="n">
-        <v>464.5144321328185</v>
+        <v>4.631827985578389</v>
       </c>
       <c r="C9" t="n">
-        <v>70.86700118219642</v>
+        <v>70.66384521630107</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>13.23232323232323</v>
       </c>
       <c r="B10" t="n">
-        <v>464.7640230778111</v>
+        <v>4.634316739950682</v>
       </c>
       <c r="C10" t="n">
-        <v>72.7443393798676</v>
+        <v>72.53580160793445</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>13.63636363636363</v>
       </c>
       <c r="B11" t="n">
-        <v>464.9912708054067</v>
+        <v>4.636582702666853</v>
       </c>
       <c r="C11" t="n">
-        <v>74.62263998196113</v>
+        <v>74.40871764504391</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>14.04040404040404</v>
       </c>
       <c r="B12" t="n">
-        <v>465.1986752497581</v>
+        <v>4.638650801402278</v>
       </c>
       <c r="C12" t="n">
-        <v>76.50181788882765</v>
+        <v>76.28250847193794</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>14.44444444444445</v>
       </c>
       <c r="B13" t="n">
-        <v>465.3883942749655</v>
+        <v>4.640542552937999</v>
       </c>
       <c r="C13" t="n">
-        <v>78.38179739020688</v>
+        <v>78.1570985953972</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14.84848484848485</v>
       </c>
       <c r="B14" t="n">
-        <v>465.5622982803786</v>
+        <v>4.642276607648373</v>
       </c>
       <c r="C14" t="n">
-        <v>80.26251089716516</v>
+        <v>80.03242062024492</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15.25252525252525</v>
       </c>
       <c r="B15" t="n">
-        <v>465.7220149113929</v>
+        <v>4.643869195327293</v>
       </c>
       <c r="C15" t="n">
-        <v>82.14389787390746</v>
+        <v>81.90841418422679</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>15.65656565656566</v>
       </c>
       <c r="B16" t="n">
-        <v>465.8689658708221</v>
+        <v>4.645334492246629</v>
       </c>
       <c r="C16" t="n">
-        <v>84.02590393369837</v>
+        <v>83.78502505651795</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>16.06060606060606</v>
       </c>
       <c r="B17" t="n">
-        <v>466.004397384969</v>
+        <v>4.646684924943574</v>
       </c>
       <c r="C17" t="n">
-        <v>85.9084800702276</v>
+        <v>85.66220437129687</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>16.46464646464646</v>
       </c>
       <c r="B18" t="n">
-        <v>466.1294055431418</v>
+        <v>4.647931422889378</v>
       </c>
       <c r="C18" t="n">
-        <v>87.79158200136044</v>
+        <v>87.53990797337246</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>16.86868686868687</v>
       </c>
       <c r="B19" t="n">
-        <v>466.2449574724388</v>
+        <v>4.649083629630186</v>
       </c>
       <c r="C19" t="n">
-        <v>89.67516960655803</v>
+        <v>89.41809585722012</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>17.27272727272727</v>
       </c>
       <c r="B20" t="n">
-        <v>466.3519091114526</v>
+        <v>4.650150080014543</v>
       </c>
       <c r="C20" t="n">
-        <v>91.55920644276375</v>
+        <v>91.29673168425552</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>17.67676767676768</v>
       </c>
       <c r="B21" t="n">
-        <v>466.4510201926784</v>
+        <v>4.651138349587987</v>
       </c>
       <c r="C21" t="n">
-        <v>93.44365932627215</v>
+        <v>93.17578236590225</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +675,10 @@
         <v>18.08080808080808</v>
       </c>
       <c r="B22" t="n">
-        <v>466.5429669232169</v>
+        <v>4.652055181036548</v>
       </c>
       <c r="C22" t="n">
-        <v>95.3284979703385</v>
+        <v>95.05521770223822</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +686,10 @@
         <v>18.48484848484849</v>
       </c>
       <c r="B23" t="n">
-        <v>466.6283527589009</v>
+        <v>4.65290659161916</v>
       </c>
       <c r="C23" t="n">
-        <v>97.21369467005434</v>
+        <v>96.93501006777797</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>18.88888888888889</v>
       </c>
       <c r="B24" t="n">
-        <v>466.7077175923231</v>
+        <v>4.653697964784527</v>
       </c>
       <c r="C24" t="n">
-        <v>99.09922402744769</v>
+        <v>98.81513413735865</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>19.29292929292929</v>
       </c>
       <c r="B25" t="n">
-        <v>466.7815456159342</v>
+        <v>4.654434128576709</v>
       </c>
       <c r="C25" t="n">
-        <v>100.985062710959</v>
+        <v>100.6955666463055</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>19.6969696969697</v>
       </c>
       <c r="B26" t="n">
-        <v>466.850272074006</v>
+        <v>4.65511942296118</v>
       </c>
       <c r="C26" t="n">
-        <v>102.8711892443698</v>
+        <v>102.5762861799658</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>20.1010101010101</v>
       </c>
       <c r="B27" t="n">
-        <v>466.9142890792367</v>
+        <v>4.655757757824145</v>
       </c>
       <c r="C27" t="n">
-        <v>104.7575838210719</v>
+        <v>104.4572729885122</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>20.50505050505051</v>
       </c>
       <c r="B28" t="n">
-        <v>466.9739506391219</v>
+        <v>4.656352663092147</v>
       </c>
       <c r="C28" t="n">
-        <v>106.6442281401983</v>
+        <v>106.3385088235405</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>20.90909090909091</v>
       </c>
       <c r="B29" t="n">
-        <v>467.0295770123747</v>
+        <v>4.656907332171397</v>
       </c>
       <c r="C29" t="n">
-        <v>108.5311052616707</v>
+        <v>108.2199767935358</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>21.31313131313131</v>
       </c>
       <c r="B30" t="n">
-        <v>467.0814584954859</v>
+        <v>4.657424659704805</v>
       </c>
       <c r="C30" t="n">
-        <v>110.4181994776686</v>
+        <v>110.1016612357066</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>21.71717171717172</v>
       </c>
       <c r="B31" t="n">
-        <v>467.1298587230032</v>
+        <v>4.657907274480181</v>
       </c>
       <c r="C31" t="n">
-        <v>112.3054961983826</v>
+        <v>111.9835476020694</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +785,10 @@
         <v>22.12121212121212</v>
       </c>
       <c r="B32" t="n">
-        <v>467.175017551577</v>
+        <v>4.658357568188007</v>
       </c>
       <c r="C32" t="n">
-        <v>114.1929818502558</v>
+        <v>113.8656223579778</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +796,10 @@
         <v>22.52525252525253</v>
       </c>
       <c r="B33" t="n">
-        <v>467.2171535866761</v>
+        <v>4.658777720616163</v>
       </c>
       <c r="C33" t="n">
-        <v>116.0806437851161</v>
+        <v>115.7478728915189</v>
       </c>
     </row>
     <row r="34">
@@ -807,10 +807,10 @@
         <v>22.92929292929293</v>
       </c>
       <c r="B34" t="n">
-        <v>467.2564664016653</v>
+        <v>4.659169721777078</v>
       </c>
       <c r="C34" t="n">
-        <v>117.9684701988995</v>
+        <v>117.6302874324683</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +818,10 @@
         <v>23.33333333333333</v>
       </c>
       <c r="B35" t="n">
-        <v>467.2931384912972</v>
+        <v>4.659535391386668</v>
       </c>
       <c r="C35" t="n">
-        <v>119.85645005878</v>
+        <v>119.5128549796277</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +829,10 @@
         <v>23.73737373737374</v>
       </c>
       <c r="B36" t="n">
-        <v>467.3273369953226</v>
+        <v>4.659876396051007</v>
       </c>
       <c r="C36" t="n">
-        <v>121.7445730377176</v>
+        <v>121.3955652355612</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +840,10 @@
         <v>24.14141414141414</v>
       </c>
       <c r="B37" t="n">
-        <v>467.3592152226057</v>
+        <v>4.660194264463798</v>
       </c>
       <c r="C37" t="n">
-        <v>123.6328294555624</v>
+        <v>123.2784085478697</v>
       </c>
     </row>
     <row r="38">
@@ -851,10 +851,10 @@
         <v>24.54545454545455</v>
       </c>
       <c r="B38" t="n">
-        <v>467.3889140016951</v>
+        <v>4.660490400873364</v>
       </c>
       <c r="C38" t="n">
-        <v>125.5212102259507</v>
+        <v>125.1613758562376</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +862,10 @@
         <v>24.94949494949495</v>
       </c>
       <c r="B39" t="n">
-        <v>467.4165628800629</v>
+        <v>4.660766097040662</v>
       </c>
       <c r="C39" t="n">
-        <v>127.4097068083561</v>
+        <v>127.0444586446224</v>
       </c>
     </row>
     <row r="40">
@@ -873,10 +873,10 @@
         <v>25.35353535353535</v>
       </c>
       <c r="B40" t="n">
-        <v>467.4422811910773</v>
+        <v>4.661022542878419</v>
       </c>
       <c r="C40" t="n">
-        <v>129.2983111647004</v>
+        <v>128.9276488979881</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +884,10 @@
         <v>25.75757575757576</v>
       </c>
       <c r="B41" t="n">
-        <v>467.4661790051155</v>
+        <v>4.661260835934995</v>
       </c>
       <c r="C41" t="n">
-        <v>131.1870157200456</v>
+        <v>130.8109390631116</v>
       </c>
     </row>
     <row r="42">
@@ -895,10 +895,10 @@
         <v>26.16161616161616</v>
       </c>
       <c r="B42" t="n">
-        <v>467.4883579789706</v>
+        <v>4.661481989864103</v>
       </c>
       <c r="C42" t="n">
-        <v>133.075813326916</v>
+        <v>132.6943220130074</v>
       </c>
     </row>
     <row r="43">
@@ -906,10 +906,10 @@
         <v>26.56565656565657</v>
       </c>
       <c r="B43" t="n">
-        <v>467.5089121157897</v>
+        <v>4.661686942002405</v>
       </c>
       <c r="C43" t="n">
-        <v>134.9646972328655</v>
+        <v>134.5777910145875</v>
       </c>
     </row>
     <row r="44">
@@ -917,10 +917,10 @@
         <v>26.96969696969697</v>
       </c>
       <c r="B44" t="n">
-        <v>467.5279284461498</v>
+        <v>4.661876560160749</v>
       </c>
       <c r="C44" t="n">
-        <v>136.8536610509564</v>
+        <v>136.4613396992227</v>
       </c>
     </row>
     <row r="45">
@@ -928,10 +928,10 @@
         <v>27.37373737373737</v>
       </c>
       <c r="B45" t="n">
-        <v>467.5454876394862</v>
+        <v>4.662051648720916</v>
       </c>
       <c r="C45" t="n">
-        <v>138.7426987328431</v>
+        <v>138.3449620359065</v>
       </c>
     </row>
     <row r="46">
@@ -939,10 +939,10 @@
         <v>27.77777777777778</v>
       </c>
       <c r="B46" t="n">
-        <v>467.5616645538892</v>
+        <v>4.662212954117841</v>
       </c>
       <c r="C46" t="n">
-        <v>140.6318045442022</v>
+        <v>140.2286523067551</v>
       </c>
     </row>
     <row r="47">
@@ -950,10 +950,10 @@
         <v>28.18181818181819</v>
       </c>
       <c r="B47" t="n">
-        <v>467.5765287312714</v>
+        <v>4.662361169777074</v>
       </c>
       <c r="C47" t="n">
-        <v>142.5209730422689</v>
+        <v>142.1124050846051</v>
       </c>
     </row>
     <row r="48">
@@ -961,10 +961,10 @@
         <v>28.58585858585859</v>
       </c>
       <c r="B48" t="n">
-        <v>467.5901448440156</v>
+        <v>4.662496940568465</v>
       </c>
       <c r="C48" t="n">
-        <v>144.4101990552754</v>
+        <v>143.9962152125158</v>
       </c>
     </row>
     <row r="49">
@@ -972,10 +972,10 @@
         <v>28.98989898989899</v>
       </c>
       <c r="B49" t="n">
-        <v>467.6025730984624</v>
+        <v>4.662620866829474</v>
       </c>
       <c r="C49" t="n">
-        <v>146.2994776636051</v>
+        <v>145.8800777849742</v>
       </c>
     </row>
     <row r="50">
@@ -983,10 +983,10 @@
         <v>29.39393939393939</v>
       </c>
       <c r="B50" t="n">
-        <v>467.6138695999371</v>
+        <v>4.662733508004968</v>
       </c>
       <c r="C50" t="n">
-        <v>148.1888041824991</v>
+        <v>147.76398813065</v>
       </c>
     </row>
     <row r="51">
@@ -994,10 +994,10 @@
         <v>29.7979797979798</v>
       </c>
       <c r="B51" t="n">
-        <v>467.6240866834488</v>
+        <v>4.66283538594474</v>
       </c>
       <c r="C51" t="n">
-        <v>150.0781741461606</v>
+        <v>149.6479417965502</v>
       </c>
     </row>
     <row r="52">
@@ -1005,10 +1005,10 @@
         <v>30.2020202020202</v>
       </c>
       <c r="B52" t="n">
-        <v>467.6332732136992</v>
+        <v>4.662926987894994</v>
       </c>
       <c r="C52" t="n">
-        <v>151.9675832931439</v>
+        <v>151.5319345334433</v>
       </c>
     </row>
     <row r="53">
@@ -1016,10 +1016,10 @@
         <v>30.6060606060606</v>
       </c>
       <c r="B53" t="n">
-        <v>467.6414748576157</v>
+        <v>4.663008769215857</v>
       </c>
       <c r="C53" t="n">
-        <v>153.8570275528868</v>
+        <v>153.4159622824382</v>
       </c>
     </row>
     <row r="54">
@@ -1027,10 +1027,10 @@
         <v>31.01010101010101</v>
       </c>
       <c r="B54" t="n">
-        <v>467.6487343322437</v>
+        <v>4.663081155853209</v>
       </c>
       <c r="C54" t="n">
-        <v>155.7465030333015</v>
+        <v>155.3000211626038</v>
       </c>
     </row>
     <row r="55">
@@ -1038,10 +1038,10 @@
         <v>31.41414141414142</v>
       </c>
       <c r="B55" t="n">
-        <v>467.6550916305135</v>
+        <v>4.66314454658986</v>
       </c>
       <c r="C55" t="n">
-        <v>157.6360060093191</v>
+        <v>157.1841074595498</v>
       </c>
     </row>
     <row r="56">
@@ -1049,10 +1049,10 @@
         <v>31.81818181818182</v>
       </c>
       <c r="B56" t="n">
-        <v>467.6605842271073</v>
+        <v>4.663199315098344</v>
       </c>
       <c r="C56" t="n">
-        <v>159.5255329123033</v>
+        <v>159.0682176148709</v>
       </c>
     </row>
     <row r="57">
@@ -1060,10 +1060,10 @@
         <v>32.22222222222222</v>
       </c>
       <c r="B57" t="n">
-        <v>467.6652472664084</v>
+        <v>4.663245811814997</v>
       </c>
       <c r="C57" t="n">
-        <v>161.4150803202647</v>
+        <v>160.952348216387</v>
       </c>
     </row>
     <row r="58">
@@ -1071,10 +1071,10 @@
         <v>32.62626262626262</v>
       </c>
       <c r="B58" t="n">
-        <v>467.6691137342893</v>
+        <v>4.663284365652935</v>
       </c>
       <c r="C58" t="n">
-        <v>163.3046449487933</v>
+        <v>162.8364959891037</v>
       </c>
     </row>
     <row r="59">
@@ -1082,10 +1082,10 @@
         <v>33.03030303030303</v>
       </c>
       <c r="B59" t="n">
-        <v>467.6722146153109</v>
+        <v>4.663315285569523</v>
       </c>
       <c r="C59" t="n">
-        <v>165.1942236426632</v>
+        <v>164.7206577868396</v>
       </c>
     </row>
     <row r="60">
@@ -1093,10 +1093,10 @@
         <v>33.43434343434344</v>
       </c>
       <c r="B60" t="n">
-        <v>467.6745790367269</v>
+        <v>4.663338862002303</v>
       </c>
       <c r="C60" t="n">
-        <v>167.0838133680388</v>
+        <v>166.6048305844581</v>
       </c>
     </row>
     <row r="61">
@@ -1104,10 +1104,10 @@
         <v>33.83838383838384</v>
       </c>
       <c r="B61" t="n">
-        <v>467.6762344005486</v>
+        <v>4.663355368185848</v>
       </c>
       <c r="C61" t="n">
-        <v>168.9734112052436</v>
+        <v>168.4890114706511</v>
       </c>
     </row>
     <row r="62">
@@ -1115,10 +1115,10 @@
         <v>34.24242424242424</v>
       </c>
       <c r="B62" t="n">
-        <v>467.6772065047848</v>
+        <v>4.663365061360688</v>
       </c>
       <c r="C62" t="n">
-        <v>170.8630143420366</v>
+        <v>170.3731976412394</v>
       </c>
     </row>
     <row r="63">
@@ -1126,10 +1126,10 @@
         <v>34.64646464646465</v>
       </c>
       <c r="B63" t="n">
-        <v>467.6775196548592</v>
+        <v>4.663368183884291</v>
       </c>
       <c r="C63" t="n">
-        <v>172.7526200673592</v>
+        <v>172.257386392937</v>
       </c>
     </row>
     <row r="64">
@@ -1137,10 +1137,10 @@
         <v>35.05050505050505</v>
       </c>
       <c r="B64" t="n">
-        <v>467.6771967661062</v>
+        <v>4.663364964253082</v>
       </c>
       <c r="C64" t="n">
-        <v>174.6422257655163</v>
+        <v>174.1415751175466</v>
       </c>
     </row>
     <row r="65">
@@ -1148,10 +1148,10 @@
         <v>35.45454545454545</v>
       </c>
       <c r="B65" t="n">
-        <v>467.6762594581493</v>
+        <v>4.663355618043523</v>
       </c>
       <c r="C65" t="n">
-        <v>176.5318289107502</v>
+        <v>176.0257612965518</v>
       </c>
     </row>
     <row r="66">
@@ -1159,10 +1159,10 @@
         <v>35.85858585858585</v>
       </c>
       <c r="B66" t="n">
-        <v>467.6747281418906</v>
+        <v>4.663340348779511</v>
       </c>
       <c r="C66" t="n">
-        <v>178.4214270621871</v>
+        <v>177.9099424960762</v>
       </c>
     </row>
     <row r="67">
@@ -1170,10 +1170,10 @@
         <v>36.26262626262626</v>
       </c>
       <c r="B67" t="n">
-        <v>467.6726220997645</v>
+        <v>4.663319348732615</v>
       </c>
       <c r="C67" t="n">
-        <v>180.3110178591148</v>
+        <v>179.7941163621745</v>
       </c>
     </row>
     <row r="68">
@@ -1181,10 +1181,10 @@
         <v>36.66666666666667</v>
       </c>
       <c r="B68" t="n">
-        <v>467.6699595598442</v>
+        <v>4.66329279966102</v>
       </c>
       <c r="C68" t="n">
-        <v>182.200599016576</v>
+        <v>181.6782806164399</v>
       </c>
     </row>
     <row r="69">
@@ -1192,10 +1192,10 @@
         <v>37.07070707070707</v>
       </c>
       <c r="B69" t="n">
-        <v>467.6667577643345</v>
+        <v>4.663260873492487</v>
       </c>
       <c r="C69" t="n">
-        <v>184.0901683212485</v>
+        <v>183.5624330518947</v>
       </c>
     </row>
     <row r="70">
@@ -1203,10 +1203,10 @@
         <v>37.47474747474747</v>
       </c>
       <c r="B70" t="n">
-        <v>467.6630330329305</v>
+        <v>4.663223732956129</v>
       </c>
       <c r="C70" t="n">
-        <v>185.9797236275911</v>
+        <v>185.4465715291497</v>
       </c>
     </row>
     <row r="71">
@@ -1214,10 +1214,10 @@
         <v>37.87878787878788</v>
       </c>
       <c r="B71" t="n">
-        <v>467.6588008214781</v>
+        <v>4.663181532167327</v>
       </c>
       <c r="C71" t="n">
-        <v>187.8692628542378</v>
+        <v>187.3306939728043</v>
       </c>
     </row>
     <row r="72">
@@ -1225,10 +1225,10 @@
         <v>38.28282828282828</v>
       </c>
       <c r="B72" t="n">
-        <v>467.6540757763302</v>
+        <v>4.663134417169738</v>
       </c>
       <c r="C72" t="n">
-        <v>189.7587839806154</v>
+        <v>189.2147983680788</v>
       </c>
     </row>
     <row r="73">
@@ -1236,10 +1236,10 @@
         <v>38.68686868686869</v>
       </c>
       <c r="B73" t="n">
-        <v>467.6488717847537</v>
+        <v>4.663082526437927</v>
       </c>
       <c r="C73" t="n">
-        <v>191.6482850437799</v>
+        <v>191.0988827576555</v>
       </c>
     </row>
     <row r="74">
@@ -1247,10 +1247,10 @@
         <v>39.09090909090909</v>
       </c>
       <c r="B74" t="n">
-        <v>467.6432020217161</v>
+        <v>4.663025991343876</v>
       </c>
       <c r="C74" t="n">
-        <v>193.5377641354428</v>
+        <v>192.9829452387171</v>
       </c>
     </row>
     <row r="75">
@@ -1258,10 +1258,10 @@
         <v>39.49494949494949</v>
       </c>
       <c r="B75" t="n">
-        <v>467.6370789933413</v>
+        <v>4.662964936590306</v>
       </c>
       <c r="C75" t="n">
-        <v>195.4272193991824</v>
+        <v>194.8669839601628</v>
       </c>
     </row>
     <row r="76">
@@ -1269,10 +1269,10 @@
         <v>39.8989898989899</v>
       </c>
       <c r="B76" t="n">
-        <v>467.6305145773051</v>
+        <v>4.662899480613479</v>
       </c>
       <c r="C76" t="n">
-        <v>197.3166490278229</v>
+        <v>196.7509971199986</v>
       </c>
     </row>
     <row r="77">
@@ -1280,10 +1280,10 @@
         <v>40.3030303030303</v>
       </c>
       <c r="B77" t="n">
-        <v>467.6235200604141</v>
+        <v>4.662829735957899</v>
       </c>
       <c r="C77" t="n">
-        <v>199.2060512609755</v>
+        <v>198.6349829628814</v>
       </c>
     </row>
     <row r="78">
@@ -1291,10 +1291,10 @@
         <v>40.70707070707071</v>
       </c>
       <c r="B78" t="n">
-        <v>467.6161061735904</v>
+        <v>4.66275580962516</v>
       </c>
       <c r="C78" t="n">
-        <v>201.095424382718</v>
+        <v>200.518939777809</v>
       </c>
     </row>
     <row r="79">
@@ -1302,10 +1302,10 @@
         <v>41.11111111111111</v>
       </c>
       <c r="B79" t="n">
-        <v>467.6082831244629</v>
+        <v>4.662677803398928</v>
       </c>
       <c r="C79" t="n">
-        <v>202.9847667194206</v>
+        <v>202.4028658959478</v>
       </c>
     </row>
     <row r="80">
@@ -1313,10 +1313,10 @@
         <v>41.51515151515152</v>
       </c>
       <c r="B80" t="n">
-        <v>467.6000606277536</v>
+        <v>4.662595814147927</v>
       </c>
       <c r="C80" t="n">
-        <v>204.8740766376875</v>
+        <v>204.286759688586</v>
       </c>
     </row>
     <row r="81">
@@ -1324,10 +1324,10 @@
         <v>41.91919191919192</v>
       </c>
       <c r="B81" t="n">
-        <v>467.5914479336244</v>
+        <v>4.662509934108601</v>
       </c>
       <c r="C81" t="n">
-        <v>206.7633525424289</v>
+        <v>206.1706195652064</v>
       </c>
     </row>
     <row r="82">
@@ -1335,10 +1335,10 @@
         <v>42.32323232323232</v>
       </c>
       <c r="B82" t="n">
-        <v>467.5824538541423</v>
+        <v>4.662420251149003</v>
       </c>
       <c r="C82" t="n">
-        <v>208.6525928750348</v>
+        <v>208.0544439716666</v>
       </c>
     </row>
     <row r="83">
@@ -1346,10 +1346,10 @@
         <v>42.72727272727273</v>
       </c>
       <c r="B83" t="n">
-        <v>467.5730867880016</v>
+        <v>4.662326849015308</v>
       </c>
       <c r="C83" t="n">
-        <v>210.5417961116559</v>
+        <v>209.9382313884857</v>
       </c>
     </row>
     <row r="84">
@@ -1357,10 +1357,10 @@
         <v>43.13131313131314</v>
       </c>
       <c r="B84" t="n">
-        <v>467.5633547436363</v>
+        <v>4.662229807562277</v>
       </c>
       <c r="C84" t="n">
-        <v>212.4309607615826</v>
+        <v>211.8219803292282</v>
       </c>
     </row>
     <row r="85">
@@ -1368,10 +1368,10 @@
         <v>43.53535353535354</v>
       </c>
       <c r="B85" t="n">
-        <v>467.5532653608375</v>
+        <v>4.66212920296881</v>
       </c>
       <c r="C85" t="n">
-        <v>214.3200853657097</v>
+        <v>213.7056893389704</v>
       </c>
     </row>
     <row r="86">
@@ -1379,10 +1379,10 @@
         <v>43.93939393939394</v>
       </c>
       <c r="B86" t="n">
-        <v>467.5428259309894</v>
+        <v>4.662025107939723</v>
       </c>
       <c r="C86" t="n">
-        <v>216.2091684950897</v>
+        <v>215.5893569928628</v>
       </c>
     </row>
     <row r="87">
@@ -1390,10 +1390,10 @@
         <v>44.34343434343434</v>
       </c>
       <c r="B87" t="n">
-        <v>467.5320434160196</v>
+        <v>4.661917591894715</v>
       </c>
       <c r="C87" t="n">
-        <v>218.0982087495636</v>
+        <v>217.472981894759</v>
       </c>
     </row>
     <row r="88">
@@ -1401,10 +1401,10 @@
         <v>44.74747474747475</v>
       </c>
       <c r="B88" t="n">
-        <v>467.5209244661606</v>
+        <v>4.661806721145466</v>
       </c>
       <c r="C88" t="n">
-        <v>219.9872047564647</v>
+        <v>219.3565626759284</v>
       </c>
     </row>
     <row r="89">
@@ -1412,10 +1412,10 @@
         <v>45.15151515151516</v>
       </c>
       <c r="B89" t="n">
-        <v>467.5094754366028</v>
+        <v>4.661692559061697</v>
       </c>
       <c r="C89" t="n">
-        <v>221.8761551693974</v>
+        <v>221.2400979938336</v>
       </c>
     </row>
     <row r="90">
@@ -1423,10 +1423,10 @@
         <v>45.55555555555556</v>
       </c>
       <c r="B90" t="n">
-        <v>467.4977024031211</v>
+        <v>4.661575166226979</v>
       </c>
       <c r="C90" t="n">
-        <v>223.7650586670704</v>
+        <v>223.1235865309729</v>
       </c>
     </row>
     <row r="91">
@@ -1434,10 +1434,10 @@
         <v>45.95959595959596</v>
       </c>
       <c r="B91" t="n">
-        <v>467.4856111767438</v>
+        <v>4.661454600585008</v>
       </c>
       <c r="C91" t="n">
-        <v>225.6539139522044</v>
+        <v>225.0070269937853</v>
       </c>
     </row>
     <row r="92">
@@ -1445,10 +1445,10 @@
         <v>46.36363636363636</v>
       </c>
       <c r="B92" t="n">
-        <v>467.473207317531</v>
+        <v>4.661330917576997</v>
       </c>
       <c r="C92" t="n">
-        <v>227.5427197504855</v>
+        <v>226.8904181116088</v>
       </c>
     </row>
     <row r="93">
@@ -1456,10 +1456,10 @@
         <v>46.76767676767677</v>
       </c>
       <c r="B93" t="n">
-        <v>467.4604961475268</v>
+        <v>4.661204170270816</v>
       </c>
       <c r="C93" t="n">
-        <v>229.4314748095803</v>
+        <v>228.7737586357025</v>
       </c>
     </row>
     <row r="94">
@@ -1467,10 +1467,10 @@
         <v>47.17171717171718</v>
       </c>
       <c r="B94" t="n">
-        <v>467.4474827629349</v>
+        <v>4.661074409482409</v>
       </c>
       <c r="C94" t="n">
-        <v>231.3201778981993</v>
+        <v>230.6570473383044</v>
       </c>
     </row>
     <row r="95">
@@ -1478,10 +1478,10 @@
         <v>47.57575757575757</v>
       </c>
       <c r="B95" t="n">
-        <v>467.4341720455782</v>
+        <v>4.660941683890058</v>
       </c>
       <c r="C95" t="n">
-        <v>233.2088278052058</v>
+        <v>232.5402830117507</v>
       </c>
     </row>
     <row r="96">
@@ -1489,10 +1489,10 @@
         <v>47.97979797979798</v>
       </c>
       <c r="B96" t="n">
-        <v>467.4205686736834</v>
+        <v>4.660806040141916</v>
       </c>
       <c r="C96" t="n">
-        <v>235.0974233387719</v>
+        <v>234.4234644676305</v>
       </c>
     </row>
     <row r="97">
@@ -1500,10 +1500,10 @@
         <v>48.38383838383839</v>
       </c>
       <c r="B97" t="n">
-        <v>467.4066771320398</v>
+        <v>4.66066752295731</v>
       </c>
       <c r="C97" t="n">
-        <v>236.9859633255808</v>
+        <v>236.3065905359902</v>
       </c>
     </row>
     <row r="98">
@@ -1511,10 +1511,10 @@
         <v>48.78787878787879</v>
       </c>
       <c r="B98" t="n">
-        <v>467.3925017215722</v>
+        <v>4.660526175222193</v>
       </c>
       <c r="C98" t="n">
-        <v>238.8744466100572</v>
+        <v>238.1896600645671</v>
       </c>
     </row>
     <row r="99">
@@ -1522,10 +1522,10 @@
         <v>49.1919191919192</v>
       </c>
       <c r="B99" t="n">
-        <v>467.3780465683648</v>
+        <v>4.660382038079124</v>
       </c>
       <c r="C99" t="n">
-        <v>240.7628720536511</v>
+        <v>240.072671918075</v>
       </c>
     </row>
     <row r="100">
@@ -1533,10 +1533,10 @@
         <v>49.59595959595959</v>
       </c>
       <c r="B100" t="n">
-        <v>467.3633156321754</v>
+        <v>4.660235151012166</v>
       </c>
       <c r="C100" t="n">
-        <v>242.6512385341414</v>
+        <v>241.9556249775103</v>
       </c>
     </row>
     <row r="101">
@@ -1544,10 +1544,10 @@
         <v>50</v>
       </c>
       <c r="B101" t="n">
-        <v>467.3483127144676</v>
+        <v>4.660085551926977</v>
       </c>
       <c r="C101" t="n">
-        <v>244.5395449449861</v>
+        <v>243.8385181395029</v>
       </c>
     </row>
   </sheetData>
